--- a/data/pca/factorExposure/factorExposure_2014-09-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.0007455074322144223</v>
+        <v>0.01802192707510964</v>
       </c>
       <c r="C2">
-        <v>-0.1200427694009936</v>
+        <v>-0.07065043184164929</v>
       </c>
       <c r="D2">
-        <v>-0.02043360304723224</v>
+        <v>0.03318602934335847</v>
       </c>
       <c r="E2">
-        <v>-0.2187712683178351</v>
+        <v>0.05281987143429193</v>
       </c>
       <c r="F2">
-        <v>0.06817287038224279</v>
+        <v>0.1491769098675664</v>
       </c>
       <c r="G2">
-        <v>-0.04041902472806681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.01112439092890794</v>
+      </c>
+      <c r="H2">
+        <v>0.06256107531456935</v>
+      </c>
+      <c r="I2">
+        <v>-0.01735420788215103</v>
+      </c>
+      <c r="J2">
+        <v>0.02301536417590276</v>
+      </c>
+      <c r="K2">
+        <v>-0.1742924685280683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01286169173753206</v>
+        <v>0.01576632008523252</v>
       </c>
       <c r="C4">
-        <v>-0.1661505012169063</v>
+        <v>-0.1449386428634258</v>
       </c>
       <c r="D4">
-        <v>-0.03157309878957619</v>
+        <v>0.0644211907279237</v>
       </c>
       <c r="E4">
-        <v>-0.05435890383732386</v>
+        <v>-0.03171875071087781</v>
       </c>
       <c r="F4">
-        <v>-0.05807543257724363</v>
+        <v>0.06942917206197756</v>
       </c>
       <c r="G4">
-        <v>0.0401812836168093</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03203898540654518</v>
+      </c>
+      <c r="H4">
+        <v>0.08268966956743314</v>
+      </c>
+      <c r="I4">
+        <v>-0.1120934267775825</v>
+      </c>
+      <c r="J4">
+        <v>0.03583824791854667</v>
+      </c>
+      <c r="K4">
+        <v>-0.164966528851291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.02423010447184883</v>
+        <v>0.03718898175358436</v>
       </c>
       <c r="C6">
-        <v>-0.0796219875180663</v>
+        <v>-0.08731856631353903</v>
       </c>
       <c r="D6">
-        <v>-0.05898760705711591</v>
+        <v>0.02809514009792298</v>
       </c>
       <c r="E6">
-        <v>-0.06957235991782645</v>
+        <v>0.03966050561634349</v>
       </c>
       <c r="F6">
-        <v>-0.007230620641701058</v>
+        <v>0.03161503910725218</v>
       </c>
       <c r="G6">
-        <v>0.02405780748646721</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.04046922901682214</v>
+      </c>
+      <c r="H6">
+        <v>0.03135410300173039</v>
+      </c>
+      <c r="I6">
+        <v>0.0106723148149242</v>
+      </c>
+      <c r="J6">
+        <v>-0.0940751762094147</v>
+      </c>
+      <c r="K6">
+        <v>-0.08313252558367192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.001856565999086865</v>
+        <v>0.01817374583666115</v>
       </c>
       <c r="C7">
-        <v>-0.06341232407687972</v>
+        <v>-0.07111847058462609</v>
       </c>
       <c r="D7">
-        <v>-0.03675310964726506</v>
+        <v>0.03089593028635032</v>
       </c>
       <c r="E7">
-        <v>-0.01891957570519969</v>
+        <v>-0.01700580180234054</v>
       </c>
       <c r="F7">
-        <v>-0.0262550032124417</v>
+        <v>-0.004355105941082005</v>
       </c>
       <c r="G7">
-        <v>0.03228829650087713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03144193773250763</v>
+      </c>
+      <c r="H7">
+        <v>0.09060554705596188</v>
+      </c>
+      <c r="I7">
+        <v>-0.02027816633469211</v>
+      </c>
+      <c r="J7">
+        <v>-0.005760388368213707</v>
+      </c>
+      <c r="K7">
+        <v>-0.0291155898509178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01232620367205269</v>
+        <v>-0.0004720639740123006</v>
       </c>
       <c r="C8">
-        <v>-0.06765558598776512</v>
+        <v>-0.06081453680847464</v>
       </c>
       <c r="D8">
-        <v>-0.0441064696038431</v>
+        <v>0.0457012061905404</v>
       </c>
       <c r="E8">
-        <v>-0.06821667120554961</v>
+        <v>0.007457216049016009</v>
       </c>
       <c r="F8">
-        <v>-0.004384773626158319</v>
+        <v>0.06037667650213598</v>
       </c>
       <c r="G8">
-        <v>0.006200704008816863</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01734056076168733</v>
+      </c>
+      <c r="H8">
+        <v>0.06160276112109474</v>
+      </c>
+      <c r="I8">
+        <v>-0.02032427476386089</v>
+      </c>
+      <c r="J8">
+        <v>-0.001500555659689098</v>
+      </c>
+      <c r="K8">
+        <v>0.01296089269523149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.005811572007657499</v>
+        <v>0.01270466256018719</v>
       </c>
       <c r="C9">
-        <v>-0.1194262905341534</v>
+        <v>-0.104459582878961</v>
       </c>
       <c r="D9">
-        <v>-0.04473151909169689</v>
+        <v>0.04235814443527677</v>
       </c>
       <c r="E9">
-        <v>-0.01530669041214321</v>
+        <v>-0.007376606510149496</v>
       </c>
       <c r="F9">
-        <v>-0.006316761961880549</v>
+        <v>0.03312916433822355</v>
       </c>
       <c r="G9">
-        <v>0.05869956328303534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.01796328118082097</v>
+      </c>
+      <c r="H9">
+        <v>0.08913952883023975</v>
+      </c>
+      <c r="I9">
+        <v>-0.07604087652205682</v>
+      </c>
+      <c r="J9">
+        <v>0.007352502505278588</v>
+      </c>
+      <c r="K9">
+        <v>-0.07736749180184857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.272561355972041</v>
+        <v>0.2482934011254325</v>
       </c>
       <c r="C10">
-        <v>0.06549128651670563</v>
+        <v>0.09052717175885754</v>
       </c>
       <c r="D10">
-        <v>0.01823605438078816</v>
+        <v>-0.006728178331812836</v>
       </c>
       <c r="E10">
-        <v>0.0192779130246683</v>
+        <v>0.01226089123094215</v>
       </c>
       <c r="F10">
-        <v>-0.004115886213575981</v>
+        <v>-0.003006735314158283</v>
       </c>
       <c r="G10">
-        <v>0.03026733412198339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02438271896620189</v>
+      </c>
+      <c r="H10">
+        <v>0.03161977224482193</v>
+      </c>
+      <c r="I10">
+        <v>-0.01260272842627256</v>
+      </c>
+      <c r="J10">
+        <v>0.1757509264673595</v>
+      </c>
+      <c r="K10">
+        <v>0.09508876881373565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.002678564033659468</v>
+        <v>0.0160433013437711</v>
       </c>
       <c r="C11">
-        <v>-0.06545648787262565</v>
+        <v>-0.08273922415978618</v>
       </c>
       <c r="D11">
-        <v>-0.03059693490941969</v>
+        <v>0.03845974613953954</v>
       </c>
       <c r="E11">
-        <v>0.02073486391709066</v>
+        <v>-0.005872603715942115</v>
       </c>
       <c r="F11">
-        <v>-0.007175062197428281</v>
+        <v>-0.01377761518289828</v>
       </c>
       <c r="G11">
-        <v>0.04559425184543058</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.00989599570844292</v>
+      </c>
+      <c r="H11">
+        <v>0.02733506805217735</v>
+      </c>
+      <c r="I11">
+        <v>-0.01706020429199876</v>
+      </c>
+      <c r="J11">
+        <v>-0.02579007605026451</v>
+      </c>
+      <c r="K11">
+        <v>0.01212889600196092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.0005834308596963219</v>
+        <v>0.0154146878150693</v>
       </c>
       <c r="C12">
-        <v>-0.04395818560723027</v>
+        <v>-0.05559598196455286</v>
       </c>
       <c r="D12">
-        <v>-0.03658903319146871</v>
+        <v>0.02568189530776784</v>
       </c>
       <c r="E12">
-        <v>0.01457131536857575</v>
+        <v>0.01900936410014425</v>
       </c>
       <c r="F12">
-        <v>0.02400311527556194</v>
+        <v>-0.01314739299499547</v>
       </c>
       <c r="G12">
-        <v>0.0620149040439244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.02866598178194772</v>
+      </c>
+      <c r="H12">
+        <v>0.02138720943281625</v>
+      </c>
+      <c r="I12">
+        <v>-0.01854864635939371</v>
+      </c>
+      <c r="J12">
+        <v>-0.0175912068344232</v>
+      </c>
+      <c r="K12">
+        <v>0.001839258950210812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.0069748070559487</v>
+        <v>0.004741508672646418</v>
       </c>
       <c r="C13">
-        <v>-0.1253802932415674</v>
+        <v>-0.1209487929572121</v>
       </c>
       <c r="D13">
-        <v>-0.07002682889089278</v>
+        <v>0.04314311269598697</v>
       </c>
       <c r="E13">
-        <v>-0.05359205984202164</v>
+        <v>0.1175813972407336</v>
       </c>
       <c r="F13">
-        <v>0.06220969861563157</v>
+        <v>0.1033724784786045</v>
       </c>
       <c r="G13">
-        <v>0.1778528196143552</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.124921169916065</v>
+      </c>
+      <c r="H13">
+        <v>0.1353810025777986</v>
+      </c>
+      <c r="I13">
+        <v>0.11660117073418</v>
+      </c>
+      <c r="J13">
+        <v>0.1904916496177634</v>
+      </c>
+      <c r="K13">
+        <v>0.22076277779203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.005210423231092459</v>
+        <v>0.02019879474423003</v>
       </c>
       <c r="C14">
-        <v>-0.07071648352446644</v>
+        <v>-0.07633842998804975</v>
       </c>
       <c r="D14">
-        <v>-0.0378373500595646</v>
+        <v>0.04947114505177348</v>
       </c>
       <c r="E14">
-        <v>-0.02946459221994931</v>
+        <v>0.04467904271413949</v>
       </c>
       <c r="F14">
-        <v>0.02732537784731981</v>
+        <v>0.0002047217251103998</v>
       </c>
       <c r="G14">
-        <v>0.07541256245714865</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.09205475438518855</v>
+      </c>
+      <c r="H14">
+        <v>0.1978392151323358</v>
+      </c>
+      <c r="I14">
+        <v>-0.01428203690217187</v>
+      </c>
+      <c r="J14">
+        <v>-0.02024371076556426</v>
+      </c>
+      <c r="K14">
+        <v>0.112815156804542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.002537634656838999</v>
+        <v>0.003425236281129305</v>
       </c>
       <c r="C15">
-        <v>-0.09943234843239473</v>
+        <v>-0.08387960719444487</v>
       </c>
       <c r="D15">
-        <v>-0.04796686749512401</v>
+        <v>0.03399526497001337</v>
       </c>
       <c r="E15">
-        <v>-0.04367403691320727</v>
+        <v>-0.006084069306024986</v>
       </c>
       <c r="F15">
-        <v>-0.00207381667800801</v>
+        <v>0.0246942175210021</v>
       </c>
       <c r="G15">
-        <v>0.05449165132313186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.02985101173758472</v>
+      </c>
+      <c r="H15">
+        <v>0.09284415462684165</v>
+      </c>
+      <c r="I15">
+        <v>-0.03116825308747479</v>
+      </c>
+      <c r="J15">
+        <v>-0.02195361299687636</v>
+      </c>
+      <c r="K15">
+        <v>0.06802158889737066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.005200647650639727</v>
+        <v>0.01512347153619295</v>
       </c>
       <c r="C16">
-        <v>-0.05594825151359343</v>
+        <v>-0.06210056458842245</v>
       </c>
       <c r="D16">
-        <v>-0.0255581098697591</v>
+        <v>0.02668549487657646</v>
       </c>
       <c r="E16">
-        <v>0.01390714251606475</v>
+        <v>-0.001749701086734454</v>
       </c>
       <c r="F16">
-        <v>0.009495311215632326</v>
+        <v>-0.008381995838004209</v>
       </c>
       <c r="G16">
-        <v>0.03258223293014864</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.009785839117029696</v>
+      </c>
+      <c r="H16">
+        <v>0.01982689414350039</v>
+      </c>
+      <c r="I16">
+        <v>-0.01348291727994434</v>
+      </c>
+      <c r="J16">
+        <v>-0.01959579200648863</v>
+      </c>
+      <c r="K16">
+        <v>-0.004620101772760609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.008993909944638379</v>
+        <v>0.01429876084490527</v>
       </c>
       <c r="C20">
-        <v>-0.08506189776604391</v>
+        <v>-0.08593880159279052</v>
       </c>
       <c r="D20">
-        <v>-0.03660623837631845</v>
+        <v>0.02720677863094352</v>
       </c>
       <c r="E20">
-        <v>0.02386631709684263</v>
+        <v>-0.02349025614470607</v>
       </c>
       <c r="F20">
-        <v>-0.009696990363283725</v>
+        <v>-0.01060034985006809</v>
       </c>
       <c r="G20">
-        <v>0.1110068311420297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.0391492723927109</v>
+      </c>
+      <c r="H20">
+        <v>0.07181745843409343</v>
+      </c>
+      <c r="I20">
+        <v>-0.01509704578582355</v>
+      </c>
+      <c r="J20">
+        <v>-0.01889250481601394</v>
+      </c>
+      <c r="K20">
+        <v>-0.009706118946668911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.009805873813299563</v>
+        <v>0.01136452903995247</v>
       </c>
       <c r="C21">
-        <v>-0.0913235603626299</v>
+        <v>-0.07238751208755416</v>
       </c>
       <c r="D21">
-        <v>0.02106614018146782</v>
+        <v>0.01984618837077238</v>
       </c>
       <c r="E21">
-        <v>-0.0329401132442829</v>
+        <v>0.0943150751075056</v>
       </c>
       <c r="F21">
-        <v>0.06279418596876492</v>
+        <v>0.02163253967405149</v>
       </c>
       <c r="G21">
-        <v>0.06067292521012506</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.0348664318370858</v>
+      </c>
+      <c r="H21">
+        <v>0.1445221132991171</v>
+      </c>
+      <c r="I21">
+        <v>0.01769999010442946</v>
+      </c>
+      <c r="J21">
+        <v>0.009228908096962099</v>
+      </c>
+      <c r="K21">
+        <v>0.03674400223074611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.01144155616146033</v>
+        <v>0.003770135833539149</v>
       </c>
       <c r="C22">
-        <v>-0.250356316236978</v>
+        <v>-0.1767870540922948</v>
       </c>
       <c r="D22">
-        <v>0.08270828870992426</v>
+        <v>0.01803520440629131</v>
       </c>
       <c r="E22">
-        <v>-0.3315874201463002</v>
+        <v>-0.0995750795124104</v>
       </c>
       <c r="F22">
-        <v>-0.2714311869658889</v>
+        <v>0.5260825193241613</v>
       </c>
       <c r="G22">
-        <v>-0.1370283420825334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.01644444097324452</v>
+      </c>
+      <c r="H22">
+        <v>-0.2948813711767326</v>
+      </c>
+      <c r="I22">
+        <v>0.09313364924693086</v>
+      </c>
+      <c r="J22">
+        <v>-0.007822972862052973</v>
+      </c>
+      <c r="K22">
+        <v>0.1805678162548477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.01271687334610215</v>
+        <v>0.009017274656062859</v>
       </c>
       <c r="C23">
-        <v>-0.2529961404056417</v>
+        <v>-0.1805817270832281</v>
       </c>
       <c r="D23">
-        <v>0.08758311423776835</v>
+        <v>0.01805162201223919</v>
       </c>
       <c r="E23">
-        <v>-0.3254903950746658</v>
+        <v>-0.09486172628772239</v>
       </c>
       <c r="F23">
-        <v>-0.267509286610172</v>
+        <v>0.5103471118235052</v>
       </c>
       <c r="G23">
-        <v>-0.1360104363540221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.01421053470233188</v>
+      </c>
+      <c r="H23">
+        <v>-0.2763084994574567</v>
+      </c>
+      <c r="I23">
+        <v>0.07956558806505917</v>
+      </c>
+      <c r="J23">
+        <v>-0.01140433048619927</v>
+      </c>
+      <c r="K23">
+        <v>0.1700004637079331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>6.714272365953661e-05</v>
+        <v>0.01581957091126475</v>
       </c>
       <c r="C24">
-        <v>-0.05261113350607623</v>
+        <v>-0.06544452576864879</v>
       </c>
       <c r="D24">
-        <v>-0.04314033045929277</v>
+        <v>0.04013132841495065</v>
       </c>
       <c r="E24">
-        <v>0.01393075217970419</v>
+        <v>-0.003799751456153664</v>
       </c>
       <c r="F24">
-        <v>0.0007127918697743917</v>
+        <v>-0.00886558636333498</v>
       </c>
       <c r="G24">
-        <v>0.06131873760975395</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02600245830465628</v>
+      </c>
+      <c r="H24">
+        <v>0.03653344814221852</v>
+      </c>
+      <c r="I24">
+        <v>-0.01793310095443377</v>
+      </c>
+      <c r="J24">
+        <v>-0.01986868999100421</v>
+      </c>
+      <c r="K24">
+        <v>0.004475268109402926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.0025079257734775</v>
+        <v>0.01999793251603004</v>
       </c>
       <c r="C25">
-        <v>-0.06257060538447234</v>
+        <v>-0.06869211802621145</v>
       </c>
       <c r="D25">
-        <v>-0.02227823305125309</v>
+        <v>0.03309521773768528</v>
       </c>
       <c r="E25">
-        <v>0.02040003191076655</v>
+        <v>-0.004711699846362561</v>
       </c>
       <c r="F25">
-        <v>0.0004068723400488211</v>
+        <v>-0.007880381742064221</v>
       </c>
       <c r="G25">
-        <v>0.05483313595264845</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02013948520372146</v>
+      </c>
+      <c r="H25">
+        <v>0.03045665480652175</v>
+      </c>
+      <c r="I25">
+        <v>-0.02102245275458215</v>
+      </c>
+      <c r="J25">
+        <v>-0.006371106174628358</v>
+      </c>
+      <c r="K25">
+        <v>0.01657690613689112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.001342531384941697</v>
+        <v>0.02276877080284546</v>
       </c>
       <c r="C26">
-        <v>-0.04640226711785709</v>
+        <v>-0.05673803336852862</v>
       </c>
       <c r="D26">
-        <v>-0.06963223988050844</v>
+        <v>0.06314007948325609</v>
       </c>
       <c r="E26">
-        <v>-0.004615829253235832</v>
+        <v>-0.006825838070029471</v>
       </c>
       <c r="F26">
-        <v>0.03748429001739349</v>
+        <v>-0.0169015682118132</v>
       </c>
       <c r="G26">
-        <v>0.04106471066710382</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.005607679539030047</v>
+      </c>
+      <c r="H26">
+        <v>0.09739761331998011</v>
+      </c>
+      <c r="I26">
+        <v>-0.06076468639661733</v>
+      </c>
+      <c r="J26">
+        <v>-0.03996949779268422</v>
+      </c>
+      <c r="K26">
+        <v>-0.1186966956606217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3679353563930253</v>
+        <v>0.315388176969562</v>
       </c>
       <c r="C28">
-        <v>0.07832573632309563</v>
+        <v>0.1045722257392726</v>
       </c>
       <c r="D28">
-        <v>0.01521088905993281</v>
+        <v>-0.03277903866715116</v>
       </c>
       <c r="E28">
-        <v>0.05995184739321491</v>
+        <v>0.00656853895668962</v>
       </c>
       <c r="F28">
-        <v>0.04663327186673223</v>
+        <v>0.04454436522028233</v>
       </c>
       <c r="G28">
-        <v>-0.07538747823529363</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1156484797577997</v>
+      </c>
+      <c r="H28">
+        <v>0.06187137221581292</v>
+      </c>
+      <c r="I28">
+        <v>0.02932959797371303</v>
+      </c>
+      <c r="J28">
+        <v>0.2100128618295036</v>
+      </c>
+      <c r="K28">
+        <v>-0.03323662360041463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.004977959295461368</v>
+        <v>0.01511757972908237</v>
       </c>
       <c r="C29">
-        <v>-0.0754356805729382</v>
+        <v>-0.08337270998614624</v>
       </c>
       <c r="D29">
-        <v>-0.0472590016818383</v>
+        <v>0.05311087722813175</v>
       </c>
       <c r="E29">
-        <v>-0.02407988238754243</v>
+        <v>0.04739517785224425</v>
       </c>
       <c r="F29">
-        <v>0.02577222206098297</v>
+        <v>0.005740338482050995</v>
       </c>
       <c r="G29">
-        <v>0.1124926607489485</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1374690632777193</v>
+      </c>
+      <c r="H29">
+        <v>0.2806188824603245</v>
+      </c>
+      <c r="I29">
+        <v>-0.02610422062683027</v>
+      </c>
+      <c r="J29">
+        <v>0.003178036524385785</v>
+      </c>
+      <c r="K29">
+        <v>0.1724183131915239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.01428183491875072</v>
+        <v>0.02969309423697249</v>
       </c>
       <c r="C30">
-        <v>-0.1687736500958282</v>
+        <v>-0.142732234090073</v>
       </c>
       <c r="D30">
-        <v>-0.07020452169832204</v>
+        <v>0.05626513056186398</v>
       </c>
       <c r="E30">
-        <v>-0.0305884321136803</v>
+        <v>-0.01752386482293808</v>
       </c>
       <c r="F30">
-        <v>-0.0404665365258141</v>
+        <v>0.06033956536505222</v>
       </c>
       <c r="G30">
-        <v>0.01857042531720609</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.006542965610005144</v>
+      </c>
+      <c r="H30">
+        <v>0.04059417114810947</v>
+      </c>
+      <c r="I30">
+        <v>-0.02611715224181208</v>
+      </c>
+      <c r="J30">
+        <v>-0.04339254665701676</v>
+      </c>
+      <c r="K30">
+        <v>-0.08548594310571936</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.003359552368892819</v>
+        <v>0.0141093689219296</v>
       </c>
       <c r="C31">
-        <v>-0.05311694171815547</v>
+        <v>-0.07998045882532633</v>
       </c>
       <c r="D31">
-        <v>-0.03522518923068857</v>
+        <v>0.04156019674671269</v>
       </c>
       <c r="E31">
-        <v>0.0200666496271667</v>
+        <v>0.001869392163745578</v>
       </c>
       <c r="F31">
-        <v>0.01421859193349373</v>
+        <v>-0.00109305982659567</v>
       </c>
       <c r="G31">
-        <v>0.01737674420597741</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02153907723381362</v>
+      </c>
+      <c r="H31">
+        <v>0.03258613937509793</v>
+      </c>
+      <c r="I31">
+        <v>-0.02355968629115497</v>
+      </c>
+      <c r="J31">
+        <v>-0.008631373340993476</v>
+      </c>
+      <c r="K31">
+        <v>0.02485614984931585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01577699268834047</v>
+        <v>0.02173662323751503</v>
       </c>
       <c r="C32">
-        <v>-0.08647352388667653</v>
+        <v>-0.05180578531920051</v>
       </c>
       <c r="D32">
-        <v>-0.002016209102087946</v>
+        <v>0.02541164039662508</v>
       </c>
       <c r="E32">
-        <v>-0.1460661770403389</v>
+        <v>0.06031313003174413</v>
       </c>
       <c r="F32">
-        <v>0.01970978962715794</v>
+        <v>0.09835138076284665</v>
       </c>
       <c r="G32">
-        <v>0.08936749419502964</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.07350543885381268</v>
+      </c>
+      <c r="H32">
+        <v>0.1674875686009567</v>
+      </c>
+      <c r="I32">
+        <v>0.05924005473759969</v>
+      </c>
+      <c r="J32">
+        <v>0.2674424935131258</v>
+      </c>
+      <c r="K32">
+        <v>0.02100706342127059</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01458226245873286</v>
+        <v>0.01714833318250205</v>
       </c>
       <c r="C33">
-        <v>-0.08791238956382595</v>
+        <v>-0.1044891813097096</v>
       </c>
       <c r="D33">
-        <v>-0.06550386611774818</v>
+        <v>0.0521349685326768</v>
       </c>
       <c r="E33">
-        <v>-0.00770110888407553</v>
+        <v>-0.007114323686532173</v>
       </c>
       <c r="F33">
-        <v>0.01342105315851505</v>
+        <v>0.01279959422943482</v>
       </c>
       <c r="G33">
-        <v>0.04104777854087079</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02618475798118738</v>
+      </c>
+      <c r="H33">
+        <v>0.05067989820443277</v>
+      </c>
+      <c r="I33">
+        <v>-0.01884877684478583</v>
+      </c>
+      <c r="J33">
+        <v>0.01836118525163894</v>
+      </c>
+      <c r="K33">
+        <v>-0.002415892290125563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.0004188104361874674</v>
+        <v>0.0156683430813769</v>
       </c>
       <c r="C34">
-        <v>-0.0460295395743679</v>
+        <v>-0.04850017668985361</v>
       </c>
       <c r="D34">
-        <v>-0.02026977529156353</v>
+        <v>0.02010805415747371</v>
       </c>
       <c r="E34">
-        <v>0.002695569608187578</v>
+        <v>0.005548234294726091</v>
       </c>
       <c r="F34">
-        <v>0.02164617351200406</v>
+        <v>-0.01115103328147278</v>
       </c>
       <c r="G34">
-        <v>0.03883278846708515</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01736400017918686</v>
+      </c>
+      <c r="H34">
+        <v>0.004817933821728833</v>
+      </c>
+      <c r="I34">
+        <v>-0.01821484909240093</v>
+      </c>
+      <c r="J34">
+        <v>-0.0141570914792866</v>
+      </c>
+      <c r="K34">
+        <v>0.004102299167090431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.0023605933896114</v>
+        <v>0.01043398375638535</v>
       </c>
       <c r="C35">
-        <v>-0.02590799338037428</v>
+        <v>-0.04407648151518989</v>
       </c>
       <c r="D35">
-        <v>-0.007793474383028414</v>
+        <v>0.02280158873101249</v>
       </c>
       <c r="E35">
-        <v>-0.00674960107819003</v>
+        <v>0.01013178601988586</v>
       </c>
       <c r="F35">
-        <v>0.00529788823933292</v>
+        <v>0.006617447136964708</v>
       </c>
       <c r="G35">
-        <v>0.03578490362810002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.05579687089847037</v>
+      </c>
+      <c r="H35">
+        <v>0.1435607170043383</v>
+      </c>
+      <c r="I35">
+        <v>-0.04453985599853777</v>
+      </c>
+      <c r="J35">
+        <v>0.01938489995607376</v>
+      </c>
+      <c r="K35">
+        <v>0.1507929191526697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.001453467666370877</v>
+        <v>0.01620691331238606</v>
       </c>
       <c r="C36">
-        <v>-0.04805929260054537</v>
+        <v>-0.04924763126467344</v>
       </c>
       <c r="D36">
-        <v>-0.05268828678913852</v>
+        <v>0.04582505815201336</v>
       </c>
       <c r="E36">
-        <v>0.003249472830506565</v>
+        <v>-0.003267388030622047</v>
       </c>
       <c r="F36">
-        <v>0.01345732950969806</v>
+        <v>0.006114401082140137</v>
       </c>
       <c r="G36">
-        <v>0.0270953234855771</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.0006647386403211649</v>
+      </c>
+      <c r="H36">
+        <v>0.07607545143010672</v>
+      </c>
+      <c r="I36">
+        <v>-0.01603916582946227</v>
+      </c>
+      <c r="J36">
+        <v>-0.01564454176456091</v>
+      </c>
+      <c r="K36">
+        <v>-0.04532836062299325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.03012359677187409</v>
+        <v>0.01015979259515217</v>
       </c>
       <c r="C38">
-        <v>-0.05722827659604807</v>
+        <v>-0.0604256071526387</v>
       </c>
       <c r="D38">
-        <v>-0.05162446063010419</v>
+        <v>0.0411641715566681</v>
       </c>
       <c r="E38">
-        <v>0.01125255439502071</v>
+        <v>-0.0328409145382695</v>
       </c>
       <c r="F38">
-        <v>-0.003567052676732096</v>
+        <v>0.01751517066718467</v>
       </c>
       <c r="G38">
-        <v>0.03542143255761893</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.00868600201022556</v>
+      </c>
+      <c r="H38">
+        <v>0.08317448201520578</v>
+      </c>
+      <c r="I38">
+        <v>0.01426110531433265</v>
+      </c>
+      <c r="J38">
+        <v>0.04948190846688005</v>
+      </c>
+      <c r="K38">
+        <v>0.03216510674119486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.00156258450898014</v>
+        <v>0.01768397855610047</v>
       </c>
       <c r="C39">
-        <v>-0.1260158323818758</v>
+        <v>-0.1296570599825538</v>
       </c>
       <c r="D39">
-        <v>-0.05560770338491773</v>
+        <v>0.05734581194876314</v>
       </c>
       <c r="E39">
-        <v>0.004349019477506558</v>
+        <v>0.008828054856927026</v>
       </c>
       <c r="F39">
-        <v>0.004331743152077249</v>
+        <v>-0.002619439608329658</v>
       </c>
       <c r="G39">
-        <v>0.08761496309392305</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04393656330411277</v>
+      </c>
+      <c r="H39">
+        <v>0.05450785260028271</v>
+      </c>
+      <c r="I39">
+        <v>-0.007996533664705275</v>
+      </c>
+      <c r="J39">
+        <v>-0.07837086471247498</v>
+      </c>
+      <c r="K39">
+        <v>-0.03093094328247393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.001586374385213094</v>
+        <v>0.01191718651156056</v>
       </c>
       <c r="C40">
-        <v>-0.02834242659560659</v>
+        <v>-0.05629253613258957</v>
       </c>
       <c r="D40">
-        <v>-0.01988547021960349</v>
+        <v>0.04178024039105981</v>
       </c>
       <c r="E40">
-        <v>-0.1428087335076061</v>
+        <v>0.03426178735764458</v>
       </c>
       <c r="F40">
-        <v>-0.04326062392928011</v>
+        <v>0.03424017745323939</v>
       </c>
       <c r="G40">
-        <v>0.09113869991033477</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1551556588217317</v>
+      </c>
+      <c r="H40">
+        <v>0.024021048373793</v>
+      </c>
+      <c r="I40">
+        <v>-0.0361698263151406</v>
+      </c>
+      <c r="J40">
+        <v>0.01759952253958348</v>
+      </c>
+      <c r="K40">
+        <v>0.2889148255285104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01214919238972044</v>
+        <v>0.02230533266508893</v>
       </c>
       <c r="C41">
-        <v>-0.02271341892931952</v>
+        <v>-0.04734816385972931</v>
       </c>
       <c r="D41">
-        <v>-0.01018066869412161</v>
+        <v>0.01658805540682651</v>
       </c>
       <c r="E41">
-        <v>0.01264518374224936</v>
+        <v>-0.000574925665087848</v>
       </c>
       <c r="F41">
-        <v>0.02039578455453783</v>
+        <v>-0.0225557032816534</v>
       </c>
       <c r="G41">
-        <v>-0.03596145129968027</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.006185622883726698</v>
+      </c>
+      <c r="H41">
+        <v>0.022348536562524</v>
+      </c>
+      <c r="I41">
+        <v>0.004913051754711061</v>
+      </c>
+      <c r="J41">
+        <v>0.02799708806047444</v>
+      </c>
+      <c r="K41">
+        <v>0.0462511870214022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.003127694717271218</v>
+        <v>0.01815387091075989</v>
       </c>
       <c r="C43">
-        <v>-0.01994873716487248</v>
+        <v>-0.04374112571388437</v>
       </c>
       <c r="D43">
-        <v>-0.02007772131408958</v>
+        <v>0.029246918672877</v>
       </c>
       <c r="E43">
-        <v>0.006613887918475621</v>
+        <v>-0.01091451945582693</v>
       </c>
       <c r="F43">
-        <v>-0.001085156990889932</v>
+        <v>-0.01071316694706759</v>
       </c>
       <c r="G43">
-        <v>0.006088885375836302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.002792687271731889</v>
+      </c>
+      <c r="H43">
+        <v>0.03958566776214904</v>
+      </c>
+      <c r="I43">
+        <v>0.001159472578103691</v>
+      </c>
+      <c r="J43">
+        <v>-0.001159438356272011</v>
+      </c>
+      <c r="K43">
+        <v>0.03674375870118397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01705733917826758</v>
+        <v>0.01454829432064303</v>
       </c>
       <c r="C44">
-        <v>-0.09701646389105692</v>
+        <v>-0.09833631133657418</v>
       </c>
       <c r="D44">
-        <v>-0.03658352018367231</v>
+        <v>0.0577256487586451</v>
       </c>
       <c r="E44">
-        <v>-0.03633637710993776</v>
+        <v>-0.03114671206816693</v>
       </c>
       <c r="F44">
-        <v>-0.027776946488257</v>
+        <v>0.06150290776084433</v>
       </c>
       <c r="G44">
-        <v>0.06612230640204571</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04921457080562117</v>
+      </c>
+      <c r="H44">
+        <v>0.05431604711612892</v>
+      </c>
+      <c r="I44">
+        <v>-0.006065373773023252</v>
+      </c>
+      <c r="J44">
+        <v>-0.04869174503973993</v>
+      </c>
+      <c r="K44">
+        <v>-0.08516446721162088</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.005901397726403998</v>
+        <v>0.003838923014277546</v>
       </c>
       <c r="C46">
-        <v>-0.06204218166586022</v>
+        <v>-0.0647019169529343</v>
       </c>
       <c r="D46">
-        <v>-0.04670125636461391</v>
+        <v>0.02964273689654077</v>
       </c>
       <c r="E46">
-        <v>-0.01950754373990741</v>
+        <v>0.005993632521262717</v>
       </c>
       <c r="F46">
-        <v>0.007272201330977114</v>
+        <v>-0.007110425894593928</v>
       </c>
       <c r="G46">
-        <v>0.06555981147836312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04543866443181539</v>
+      </c>
+      <c r="H46">
+        <v>0.09900830326030041</v>
+      </c>
+      <c r="I46">
+        <v>0.007375624188313071</v>
+      </c>
+      <c r="J46">
+        <v>-0.004454563101916702</v>
+      </c>
+      <c r="K46">
+        <v>0.0717041072083013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.004411061938916951</v>
+        <v>0.02140383307172899</v>
       </c>
       <c r="C47">
-        <v>-0.06408383023835523</v>
+        <v>-0.0785613145158008</v>
       </c>
       <c r="D47">
-        <v>-0.04770968491919322</v>
+        <v>0.04221751486648957</v>
       </c>
       <c r="E47">
-        <v>0.02880992311047795</v>
+        <v>0.005144079192892351</v>
       </c>
       <c r="F47">
-        <v>0.04975419938232629</v>
+        <v>-0.0177453518586633</v>
       </c>
       <c r="G47">
-        <v>0.04539026448917596</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.0144288907228471</v>
+      </c>
+      <c r="H47">
+        <v>0.07156419556006181</v>
+      </c>
+      <c r="I47">
+        <v>0.001627735560114404</v>
+      </c>
+      <c r="J47">
+        <v>0.0190884506415929</v>
+      </c>
+      <c r="K47">
+        <v>0.02887669213420594</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.00442104385576302</v>
+        <v>0.02065483269705156</v>
       </c>
       <c r="C48">
-        <v>-0.05062613112645522</v>
+        <v>-0.05043623877141994</v>
       </c>
       <c r="D48">
-        <v>-0.05919191229137188</v>
+        <v>0.05423890622961541</v>
       </c>
       <c r="E48">
-        <v>0.003934216270379294</v>
+        <v>-0.00903507787439529</v>
       </c>
       <c r="F48">
-        <v>0.01079212978256785</v>
+        <v>-0.001027152136436159</v>
       </c>
       <c r="G48">
-        <v>0.04000176335264966</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.003054069403594626</v>
+      </c>
+      <c r="H48">
+        <v>0.09310191038945846</v>
+      </c>
+      <c r="I48">
+        <v>-0.04770512804111585</v>
+      </c>
+      <c r="J48">
+        <v>-0.0311159578468111</v>
+      </c>
+      <c r="K48">
+        <v>-0.09854473148620874</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.009243864359998787</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02925792366867793</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.005781120541392609</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.00735071735230915</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.03884748971801936</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03670216474129744</v>
+      </c>
+      <c r="H49">
+        <v>-0.0224479539462596</v>
+      </c>
+      <c r="I49">
+        <v>-0.04766666295709936</v>
+      </c>
+      <c r="J49">
+        <v>-0.03763633884222334</v>
+      </c>
+      <c r="K49">
+        <v>-0.02319668088020245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.001307590013352032</v>
+        <v>0.01465186310240037</v>
       </c>
       <c r="C50">
-        <v>-0.06673498074979531</v>
+        <v>-0.07899508319787522</v>
       </c>
       <c r="D50">
-        <v>-0.03402328696304014</v>
+        <v>0.03047936813250011</v>
       </c>
       <c r="E50">
-        <v>0.00387626503937848</v>
+        <v>-0.008099949544562486</v>
       </c>
       <c r="F50">
-        <v>0.0002450241321786873</v>
+        <v>0.006383687548576538</v>
       </c>
       <c r="G50">
-        <v>0.03256449385353548</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.00314242823295453</v>
+      </c>
+      <c r="H50">
+        <v>0.05425597218250456</v>
+      </c>
+      <c r="I50">
+        <v>-0.01268405254114114</v>
+      </c>
+      <c r="J50">
+        <v>0.04556852873727502</v>
+      </c>
+      <c r="K50">
+        <v>0.01290235167818728</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.001514640407363069</v>
+        <v>-0.006035855583969423</v>
       </c>
       <c r="C51">
-        <v>-0.07378169418733849</v>
+        <v>-0.0341308406635574</v>
       </c>
       <c r="D51">
-        <v>-0.02325547349083845</v>
+        <v>0.02234593613744467</v>
       </c>
       <c r="E51">
-        <v>-0.04076148723845795</v>
+        <v>0.01004370294676239</v>
       </c>
       <c r="F51">
-        <v>-0.01446559329874873</v>
+        <v>0.02883430655722607</v>
       </c>
       <c r="G51">
-        <v>0.04913576417880293</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02961646623536281</v>
+      </c>
+      <c r="H51">
+        <v>0.09988729388264352</v>
+      </c>
+      <c r="I51">
+        <v>-0.02558156766584246</v>
+      </c>
+      <c r="J51">
+        <v>-0.005548052689204996</v>
+      </c>
+      <c r="K51">
+        <v>-0.09780389904665826</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.03444170381110843</v>
+        <v>0.05728065447470831</v>
       </c>
       <c r="C53">
-        <v>-0.1218310843930112</v>
+        <v>-0.1303305445217915</v>
       </c>
       <c r="D53">
-        <v>-0.08102276446191738</v>
+        <v>0.06008895924879783</v>
       </c>
       <c r="E53">
-        <v>0.1345299184135322</v>
+        <v>0.0164673395413079</v>
       </c>
       <c r="F53">
-        <v>0.05262427714541985</v>
+        <v>-0.07281289070965317</v>
       </c>
       <c r="G53">
-        <v>-0.05338646213293183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.08543308986096947</v>
+      </c>
+      <c r="H53">
+        <v>-0.02897848189096442</v>
+      </c>
+      <c r="I53">
+        <v>-0.005603150025167611</v>
+      </c>
+      <c r="J53">
+        <v>0.03549250042564961</v>
+      </c>
+      <c r="K53">
+        <v>0.01048893381761074</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.001077248821284594</v>
+        <v>0.01714286385270367</v>
       </c>
       <c r="C54">
-        <v>-0.06459917713288744</v>
+        <v>-0.07389526151106554</v>
       </c>
       <c r="D54">
-        <v>-0.009362893696008985</v>
+        <v>0.01380214284560521</v>
       </c>
       <c r="E54">
-        <v>0.02413777113235047</v>
+        <v>0.005558454115842635</v>
       </c>
       <c r="F54">
-        <v>-0.005994607547112053</v>
+        <v>-0.01791116807059222</v>
       </c>
       <c r="G54">
-        <v>0.0227307132782376</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02375247092453668</v>
+      </c>
+      <c r="H54">
+        <v>0.04216721558131074</v>
+      </c>
+      <c r="I54">
+        <v>-0.03653516446740287</v>
+      </c>
+      <c r="J54">
+        <v>-0.02155735748781246</v>
+      </c>
+      <c r="K54">
+        <v>-0.001178710188632924</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01882313066908145</v>
+        <v>0.03113531428724512</v>
       </c>
       <c r="C55">
-        <v>-0.0782913590171745</v>
+        <v>-0.08421799128675315</v>
       </c>
       <c r="D55">
-        <v>-0.06998528964250432</v>
+        <v>0.05601158586716416</v>
       </c>
       <c r="E55">
-        <v>0.06444742889721158</v>
+        <v>0.006629896432802354</v>
       </c>
       <c r="F55">
-        <v>0.04039506571082057</v>
+        <v>-0.0521230376365899</v>
       </c>
       <c r="G55">
-        <v>-0.01143575768508961</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0396956344718263</v>
+      </c>
+      <c r="H55">
+        <v>-0.01956467267393536</v>
+      </c>
+      <c r="I55">
+        <v>-0.01494239699612144</v>
+      </c>
+      <c r="J55">
+        <v>-0.009066140021125371</v>
+      </c>
+      <c r="K55">
+        <v>0.003138933543509049</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01739046941804747</v>
+        <v>0.04507590624919686</v>
       </c>
       <c r="C56">
-        <v>-0.1515400112297216</v>
+        <v>-0.1483357211248885</v>
       </c>
       <c r="D56">
-        <v>-0.08197527413076279</v>
+        <v>0.08584543398186327</v>
       </c>
       <c r="E56">
-        <v>0.1204433287838259</v>
+        <v>0.04733722155489452</v>
       </c>
       <c r="F56">
-        <v>0.07818434914711127</v>
+        <v>-0.09722026573937233</v>
       </c>
       <c r="G56">
-        <v>-0.1110209478431409</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1659355015713147</v>
+      </c>
+      <c r="H56">
+        <v>-0.03916875738003683</v>
+      </c>
+      <c r="I56">
+        <v>-0.0257826890683518</v>
+      </c>
+      <c r="J56">
+        <v>0.01726944658006032</v>
+      </c>
+      <c r="K56">
+        <v>-0.01601508167443117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.0203902486758448</v>
+        <v>0.02015645284547751</v>
       </c>
       <c r="C58">
-        <v>-0.2993313512107187</v>
+        <v>-0.1835258005985337</v>
       </c>
       <c r="D58">
-        <v>0.01309213505610172</v>
+        <v>0.04091293505273247</v>
       </c>
       <c r="E58">
-        <v>-0.1746650663858156</v>
+        <v>-0.0485879699332133</v>
       </c>
       <c r="F58">
-        <v>-0.2463071025978618</v>
+        <v>0.3136903997428667</v>
       </c>
       <c r="G58">
-        <v>-0.08318101580167568</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.08464819492282878</v>
+      </c>
+      <c r="H58">
+        <v>0.07236042428330244</v>
+      </c>
+      <c r="I58">
+        <v>0.0165801932189214</v>
+      </c>
+      <c r="J58">
+        <v>0.04347160376305952</v>
+      </c>
+      <c r="K58">
+        <v>-0.3670203735852389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2851910411881902</v>
+        <v>0.2897643044062203</v>
       </c>
       <c r="C59">
-        <v>-0.001642504204960666</v>
+        <v>0.04359446543327091</v>
       </c>
       <c r="D59">
-        <v>0.01695834179944521</v>
+        <v>-0.005447840142745278</v>
       </c>
       <c r="E59">
-        <v>-0.04808780784238162</v>
+        <v>0.01721957840651301</v>
       </c>
       <c r="F59">
-        <v>0.04865673442238743</v>
+        <v>0.0459947396595309</v>
       </c>
       <c r="G59">
-        <v>-0.003830045864088325</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0001291717584480721</v>
+      </c>
+      <c r="H59">
+        <v>-0.02035849194035374</v>
+      </c>
+      <c r="I59">
+        <v>0.0215550261014687</v>
+      </c>
+      <c r="J59">
+        <v>0.02597078737293293</v>
+      </c>
+      <c r="K59">
+        <v>0.02613783161257927</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1056115031339148</v>
+        <v>0.1445215788842066</v>
       </c>
       <c r="C60">
-        <v>-0.1359965390464886</v>
+        <v>-0.151974597268804</v>
       </c>
       <c r="D60">
-        <v>-0.08304800128881962</v>
+        <v>0.04740892205030747</v>
       </c>
       <c r="E60">
-        <v>0.06482846981427084</v>
+        <v>0.04067146751635099</v>
       </c>
       <c r="F60">
-        <v>0.1360866325071199</v>
+        <v>-0.1136216148282257</v>
       </c>
       <c r="G60">
-        <v>0.248101596233229</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2437471387803249</v>
+      </c>
+      <c r="H60">
+        <v>-0.2441231709452072</v>
+      </c>
+      <c r="I60">
+        <v>0.04181557137362845</v>
+      </c>
+      <c r="J60">
+        <v>-0.03109398551813089</v>
+      </c>
+      <c r="K60">
+        <v>-0.04665220764921451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.00069416113516443</v>
+        <v>0.02054322379071838</v>
       </c>
       <c r="C61">
-        <v>-0.08127043039210391</v>
+        <v>-0.09760806480025125</v>
       </c>
       <c r="D61">
-        <v>-0.06423868514570805</v>
+        <v>0.05411458029509623</v>
       </c>
       <c r="E61">
-        <v>0.02920052519695469</v>
+        <v>0.008394514543481672</v>
       </c>
       <c r="F61">
-        <v>0.02560824473973151</v>
+        <v>-0.0296607501730983</v>
       </c>
       <c r="G61">
-        <v>0.08167312438778608</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03051421683431361</v>
+      </c>
+      <c r="H61">
+        <v>0.05507864601394831</v>
+      </c>
+      <c r="I61">
+        <v>-0.03346007822431901</v>
+      </c>
+      <c r="J61">
+        <v>-0.025673084367408</v>
+      </c>
+      <c r="K61">
+        <v>0.01514955174606216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002957537547796826</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01330418693823494</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003006683588200466</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.009766435063723797</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01588173985369682</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02047995157810947</v>
+      </c>
+      <c r="H62">
+        <v>-0.0005929185271942305</v>
+      </c>
+      <c r="I62">
+        <v>-0.05604409698598638</v>
+      </c>
+      <c r="J62">
+        <v>0.02121768160586666</v>
+      </c>
+      <c r="K62">
+        <v>0.005471568614480026</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.004618119050322561</v>
+        <v>0.02639891206678703</v>
       </c>
       <c r="C63">
-        <v>-0.05721439966697667</v>
+        <v>-0.06669483091004275</v>
       </c>
       <c r="D63">
-        <v>-0.04384346984361911</v>
+        <v>0.05985754030201075</v>
       </c>
       <c r="E63">
-        <v>0.03105944512663983</v>
+        <v>0.006129976208744778</v>
       </c>
       <c r="F63">
-        <v>0.001550811419506469</v>
+        <v>-0.01710540425619312</v>
       </c>
       <c r="G63">
-        <v>0.02929710789612263</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.005276917729965564</v>
+      </c>
+      <c r="H63">
+        <v>0.05576599059709061</v>
+      </c>
+      <c r="I63">
+        <v>-0.03720221026539555</v>
+      </c>
+      <c r="J63">
+        <v>-0.01188653984265088</v>
+      </c>
+      <c r="K63">
+        <v>0.01074193896348983</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.005517329440546233</v>
+        <v>0.01394771439278528</v>
       </c>
       <c r="C64">
-        <v>-0.07732350945118058</v>
+        <v>-0.09212366253684724</v>
       </c>
       <c r="D64">
-        <v>-0.06877557892477584</v>
+        <v>0.03181147256684771</v>
       </c>
       <c r="E64">
-        <v>-0.005992524076962072</v>
+        <v>-0.02537685003046868</v>
       </c>
       <c r="F64">
-        <v>-0.008109624782434996</v>
+        <v>0.0280027328092381</v>
       </c>
       <c r="G64">
-        <v>0.06801200172677749</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.07474294972799313</v>
+      </c>
+      <c r="H64">
+        <v>0.04825607720011067</v>
+      </c>
+      <c r="I64">
+        <v>-0.03045339232342755</v>
+      </c>
+      <c r="J64">
+        <v>-0.0398000162216458</v>
+      </c>
+      <c r="K64">
+        <v>0.01689934800891535</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.004696745563513323</v>
+        <v>0.03002875004002785</v>
       </c>
       <c r="C65">
-        <v>-0.08165433371033608</v>
+        <v>-0.0952910603281537</v>
       </c>
       <c r="D65">
-        <v>-0.04093691392845</v>
+        <v>0.02230474815947527</v>
       </c>
       <c r="E65">
-        <v>-0.03643719166112115</v>
+        <v>-0.01453418915768043</v>
       </c>
       <c r="F65">
-        <v>-0.009097453675233985</v>
+        <v>0.002530627875971631</v>
       </c>
       <c r="G65">
-        <v>0.02893653256349351</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.08218764246940992</v>
+      </c>
+      <c r="H65">
+        <v>9.458497959904144e-05</v>
+      </c>
+      <c r="I65">
+        <v>0.02979190529985699</v>
+      </c>
+      <c r="J65">
+        <v>-0.09706444293006167</v>
+      </c>
+      <c r="K65">
+        <v>-0.09196680968519463</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.004991284009072906</v>
+        <v>0.01404183079736636</v>
       </c>
       <c r="C66">
-        <v>-0.1695934833064613</v>
+        <v>-0.1670007059115942</v>
       </c>
       <c r="D66">
-        <v>-0.04321423477569007</v>
+        <v>0.04922353404853672</v>
       </c>
       <c r="E66">
-        <v>-0.03286257342408942</v>
+        <v>0.01593048211862369</v>
       </c>
       <c r="F66">
-        <v>0.02255765027531184</v>
+        <v>0.01029609703957279</v>
       </c>
       <c r="G66">
-        <v>0.1049351009307697</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03263881410207146</v>
+      </c>
+      <c r="H66">
+        <v>0.06447001569634385</v>
+      </c>
+      <c r="I66">
+        <v>-0.02931585413008198</v>
+      </c>
+      <c r="J66">
+        <v>-0.04856066673223773</v>
+      </c>
+      <c r="K66">
+        <v>-0.02212470856359296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.03031521496136192</v>
+        <v>0.01890223007113257</v>
       </c>
       <c r="C67">
-        <v>-0.03155581333533167</v>
+        <v>-0.05077324698989676</v>
       </c>
       <c r="D67">
-        <v>-0.06699603115853257</v>
+        <v>0.04265826690312882</v>
       </c>
       <c r="E67">
-        <v>0.04230683177128718</v>
+        <v>-0.02792891516067189</v>
       </c>
       <c r="F67">
-        <v>0.003830350119293119</v>
+        <v>-0.01812754369728335</v>
       </c>
       <c r="G67">
-        <v>0.04098755981963426</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03255763175526185</v>
+      </c>
+      <c r="H67">
+        <v>0.0575222759581203</v>
+      </c>
+      <c r="I67">
+        <v>0.02755049248669051</v>
+      </c>
+      <c r="J67">
+        <v>0.0407979707782474</v>
+      </c>
+      <c r="K67">
+        <v>0.04398025326102974</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2947115724762727</v>
+        <v>0.2955105803411252</v>
       </c>
       <c r="C68">
-        <v>0.02304128978209659</v>
+        <v>0.06692291572915209</v>
       </c>
       <c r="D68">
-        <v>-0.003256406309761082</v>
+        <v>-0.02395811046512874</v>
       </c>
       <c r="E68">
-        <v>-0.03523085470579965</v>
+        <v>0.006496311762428972</v>
       </c>
       <c r="F68">
-        <v>0.007717131512232055</v>
+        <v>0.03913890026992622</v>
       </c>
       <c r="G68">
-        <v>0.006575762936289419</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.0163575720744325</v>
+      </c>
+      <c r="H68">
+        <v>0.01953688134241225</v>
+      </c>
+      <c r="I68">
+        <v>-0.05966971257135342</v>
+      </c>
+      <c r="J68">
+        <v>0.05107320590466836</v>
+      </c>
+      <c r="K68">
+        <v>-0.003514825199108047</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.007159265879307491</v>
+        <v>0.008024771263938251</v>
       </c>
       <c r="C69">
-        <v>-0.04228170003689775</v>
+        <v>-0.04625165974046226</v>
       </c>
       <c r="D69">
-        <v>-0.06395499610322737</v>
+        <v>0.02503869812654187</v>
       </c>
       <c r="E69">
-        <v>0.02099105202378201</v>
+        <v>0.005088341889424518</v>
       </c>
       <c r="F69">
-        <v>0.006060370301353764</v>
+        <v>-0.01499154805813187</v>
       </c>
       <c r="G69">
-        <v>0.01665152471903225</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02328145588861579</v>
+      </c>
+      <c r="H69">
+        <v>0.0352704564819072</v>
+      </c>
+      <c r="I69">
+        <v>0.0002393094197142737</v>
+      </c>
+      <c r="J69">
+        <v>0.02270530353001612</v>
+      </c>
+      <c r="K69">
+        <v>0.006196592351564821</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2836886024048078</v>
+        <v>0.2775837096267089</v>
       </c>
       <c r="C71">
-        <v>0.03824471277516747</v>
+        <v>0.07241604547893281</v>
       </c>
       <c r="D71">
-        <v>0.00932884221963747</v>
+        <v>-0.02289846627024878</v>
       </c>
       <c r="E71">
-        <v>-0.01907883755843333</v>
+        <v>-0.01507429237757565</v>
       </c>
       <c r="F71">
-        <v>-0.01234656204165851</v>
+        <v>0.0601282115423212</v>
       </c>
       <c r="G71">
-        <v>0.01091932524776973</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02185673877633059</v>
+      </c>
+      <c r="H71">
+        <v>0.05168209981114569</v>
+      </c>
+      <c r="I71">
+        <v>-0.007929693825168303</v>
+      </c>
+      <c r="J71">
+        <v>0.1218897049175535</v>
+      </c>
+      <c r="K71">
+        <v>-0.03540216084627396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.01787979357055651</v>
+        <v>0.05480342950782251</v>
       </c>
       <c r="C72">
-        <v>-0.1519719224901102</v>
+        <v>-0.1430873730650322</v>
       </c>
       <c r="D72">
-        <v>-0.07250536493779158</v>
+        <v>0.05286667035106984</v>
       </c>
       <c r="E72">
-        <v>0.004654286551050764</v>
+        <v>0.01916304236971289</v>
       </c>
       <c r="F72">
-        <v>-0.05133487471885561</v>
+        <v>-0.04315236253543045</v>
       </c>
       <c r="G72">
-        <v>0.1067896858539892</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.01012367979830971</v>
+      </c>
+      <c r="H72">
+        <v>0.02152670738815672</v>
+      </c>
+      <c r="I72">
+        <v>-0.04221924682377941</v>
+      </c>
+      <c r="J72">
+        <v>-0.1147636125552587</v>
+      </c>
+      <c r="K72">
+        <v>-0.05638355937073362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.0686027895342851</v>
+        <v>0.1486383078131367</v>
       </c>
       <c r="C73">
-        <v>-0.1033731621913108</v>
+        <v>-0.196427281331011</v>
       </c>
       <c r="D73">
-        <v>-0.1192140828123524</v>
+        <v>0.08800373926671733</v>
       </c>
       <c r="E73">
-        <v>0.1590749804733614</v>
+        <v>0.02189410727949922</v>
       </c>
       <c r="F73">
-        <v>0.1538801394587202</v>
+        <v>-0.2365750931258414</v>
       </c>
       <c r="G73">
-        <v>0.3413822468549707</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3735710797323807</v>
+      </c>
+      <c r="H73">
+        <v>-0.3097886937047678</v>
+      </c>
+      <c r="I73">
+        <v>0.09371560775229587</v>
+      </c>
+      <c r="J73">
+        <v>0.07466809017020896</v>
+      </c>
+      <c r="K73">
+        <v>-0.08378130830081783</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.008004423736391434</v>
+        <v>0.03819109613185478</v>
       </c>
       <c r="C74">
-        <v>-0.08174453962772596</v>
+        <v>-0.09962278808804333</v>
       </c>
       <c r="D74">
-        <v>-0.0807536270618552</v>
+        <v>0.04825990945327049</v>
       </c>
       <c r="E74">
-        <v>0.07898782011352787</v>
+        <v>-0.01037236200793393</v>
       </c>
       <c r="F74">
-        <v>0.046205066182188</v>
+        <v>-0.03792282667581337</v>
       </c>
       <c r="G74">
-        <v>-0.03350370314994939</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.0460745706212819</v>
+      </c>
+      <c r="H74">
+        <v>-0.008401827391597809</v>
+      </c>
+      <c r="I74">
+        <v>-0.0401561571654132</v>
+      </c>
+      <c r="J74">
+        <v>0.007164217439780025</v>
+      </c>
+      <c r="K74">
+        <v>-0.03506694386689837</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.04546563510177256</v>
+        <v>0.06377496412564759</v>
       </c>
       <c r="C75">
-        <v>-0.1363338002585498</v>
+        <v>-0.1646037968107663</v>
       </c>
       <c r="D75">
-        <v>-0.100867676207311</v>
+        <v>0.08918176873252132</v>
       </c>
       <c r="E75">
-        <v>0.1760574979675024</v>
+        <v>-0.03618699219245222</v>
       </c>
       <c r="F75">
-        <v>0.03587035724300597</v>
+        <v>-0.1209699505468712</v>
       </c>
       <c r="G75">
-        <v>-0.1866828033142126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2289491719161307</v>
+      </c>
+      <c r="H75">
+        <v>-0.02668219647348663</v>
+      </c>
+      <c r="I75">
+        <v>-0.01360136040006321</v>
+      </c>
+      <c r="J75">
+        <v>0.1256123720728891</v>
+      </c>
+      <c r="K75">
+        <v>0.101210410726578</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.01499592205359432</v>
+        <v>0.04107672659429057</v>
       </c>
       <c r="C76">
-        <v>-0.09980816375774063</v>
+        <v>-0.1214294507563379</v>
       </c>
       <c r="D76">
-        <v>-0.07746142845967377</v>
+        <v>0.07565074434505231</v>
       </c>
       <c r="E76">
-        <v>0.09080288691933512</v>
+        <v>0.0118209275821095</v>
       </c>
       <c r="F76">
-        <v>0.06318825394740665</v>
+        <v>-0.0867558970817963</v>
       </c>
       <c r="G76">
-        <v>-0.04487268042134108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.07834092898258266</v>
+      </c>
+      <c r="H76">
+        <v>-0.01954800577697489</v>
+      </c>
+      <c r="I76">
+        <v>-0.05313312419052701</v>
+      </c>
+      <c r="J76">
+        <v>-0.01408057509076015</v>
+      </c>
+      <c r="K76">
+        <v>0.02937907337268856</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.09152317995452436</v>
+        <v>0.0510073351958177</v>
       </c>
       <c r="C77">
-        <v>-0.3772766610074534</v>
+        <v>-0.4094711509358215</v>
       </c>
       <c r="D77">
-        <v>0.8219133111416486</v>
+        <v>-0.895233877475996</v>
       </c>
       <c r="E77">
-        <v>0.3370472790709676</v>
+        <v>-0.02229399888095468</v>
       </c>
       <c r="F77">
-        <v>0.06116430846821862</v>
+        <v>-0.09121510955552731</v>
       </c>
       <c r="G77">
-        <v>0.05559734941720914</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03187362298084793</v>
+      </c>
+      <c r="H77">
+        <v>0.04094774271344544</v>
+      </c>
+      <c r="I77">
+        <v>-0.05111477044299937</v>
+      </c>
+      <c r="J77">
+        <v>0.0137419812050592</v>
+      </c>
+      <c r="K77">
+        <v>0.005935888137574705</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.01826057154722618</v>
+        <v>0.0335221751339901</v>
       </c>
       <c r="C78">
-        <v>-0.1312652010168563</v>
+        <v>-0.1139247423883045</v>
       </c>
       <c r="D78">
-        <v>-0.1367721439097959</v>
+        <v>0.09516379217519741</v>
       </c>
       <c r="E78">
-        <v>-0.06075793528589616</v>
+        <v>0.03894769988184332</v>
       </c>
       <c r="F78">
-        <v>0.09978694947495335</v>
+        <v>0.003024831136267257</v>
       </c>
       <c r="G78">
-        <v>-0.04446838871981097</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1066250456936777</v>
+      </c>
+      <c r="H78">
+        <v>0.07661200053753593</v>
+      </c>
+      <c r="I78">
+        <v>0.0224141971140929</v>
+      </c>
+      <c r="J78">
+        <v>-0.080351207301064</v>
+      </c>
+      <c r="K78">
+        <v>-0.4319135447533882</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02506606660050559</v>
+        <v>0.05459852277766546</v>
       </c>
       <c r="C79">
-        <v>-0.1629478013035472</v>
+        <v>-0.1433730560207178</v>
       </c>
       <c r="D79">
-        <v>-0.1330916735491597</v>
+        <v>0.07206961265378792</v>
       </c>
       <c r="E79">
-        <v>0.1234542877388481</v>
+        <v>0.0154548226165068</v>
       </c>
       <c r="F79">
-        <v>0.0936601952992753</v>
+        <v>-0.07059739356782169</v>
       </c>
       <c r="G79">
-        <v>-0.2224819624489252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2313267565739233</v>
+      </c>
+      <c r="H79">
+        <v>0.01236299427447733</v>
+      </c>
+      <c r="I79">
+        <v>-0.0358615180104386</v>
+      </c>
+      <c r="J79">
+        <v>0.08541787933847646</v>
+      </c>
+      <c r="K79">
+        <v>-0.04931191928966153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.008638944245289304</v>
+        <v>0.02053514270025968</v>
       </c>
       <c r="C80">
-        <v>-0.05268989675667636</v>
+        <v>-0.04535299443160262</v>
       </c>
       <c r="D80">
-        <v>-0.05331779382519665</v>
+        <v>0.04054328891915723</v>
       </c>
       <c r="E80">
-        <v>-0.03022405285812323</v>
+        <v>0.04693099169657074</v>
       </c>
       <c r="F80">
-        <v>0.02462291592542208</v>
+        <v>0.02697426607833352</v>
       </c>
       <c r="G80">
-        <v>-0.00317626542997786</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.06361830281998061</v>
+      </c>
+      <c r="H80">
+        <v>-0.02856542275134407</v>
+      </c>
+      <c r="I80">
+        <v>0.05034273554040623</v>
+      </c>
+      <c r="J80">
+        <v>0.02743038330444651</v>
+      </c>
+      <c r="K80">
+        <v>0.06861416668587428</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.007785488744603062</v>
+        <v>0.01821979887249391</v>
       </c>
       <c r="C81">
-        <v>-0.06845351705947694</v>
+        <v>-0.09766844122620354</v>
       </c>
       <c r="D81">
-        <v>-0.08390950011400163</v>
+        <v>0.05941709000211987</v>
       </c>
       <c r="E81">
-        <v>0.09247642541061082</v>
+        <v>0.01579928426694657</v>
       </c>
       <c r="F81">
-        <v>0.05958666148987385</v>
+        <v>-0.05172166923172235</v>
       </c>
       <c r="G81">
-        <v>-0.07273802172001959</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1105871166249623</v>
+      </c>
+      <c r="H81">
+        <v>0.04141815805063061</v>
+      </c>
+      <c r="I81">
+        <v>-0.0247604924913639</v>
+      </c>
+      <c r="J81">
+        <v>0.0599585449182019</v>
+      </c>
+      <c r="K81">
+        <v>0.02373983765051967</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01957482626428057</v>
+        <v>0.04394100676889577</v>
       </c>
       <c r="C82">
-        <v>-0.07380083021802407</v>
+        <v>-0.1007695477426373</v>
       </c>
       <c r="D82">
-        <v>-0.08290006666739239</v>
+        <v>0.06726814217222921</v>
       </c>
       <c r="E82">
-        <v>0.1059431924564205</v>
+        <v>0.01736696271198352</v>
       </c>
       <c r="F82">
-        <v>0.05312887946628314</v>
+        <v>-0.07392594658570172</v>
       </c>
       <c r="G82">
-        <v>-0.03665012147374471</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.08840869154490708</v>
+      </c>
+      <c r="H82">
+        <v>0.003584647619979175</v>
+      </c>
+      <c r="I82">
+        <v>-0.02491821584271487</v>
+      </c>
+      <c r="J82">
+        <v>0.01107677853733565</v>
+      </c>
+      <c r="K82">
+        <v>0.00246904219719239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-4.643452530427703e-06</v>
+        <v>-0.001386626289278755</v>
       </c>
       <c r="C83">
-        <v>-0.03379291812921908</v>
+        <v>0.02392787441993343</v>
       </c>
       <c r="D83">
-        <v>0.1644082727638047</v>
+        <v>-0.05681582218044863</v>
       </c>
       <c r="E83">
-        <v>-0.4927617091438143</v>
+        <v>0.9531359773722855</v>
       </c>
       <c r="F83">
-        <v>0.7667008842794759</v>
+        <v>0.1318179383615598</v>
       </c>
       <c r="G83">
-        <v>-0.1547875193794737</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04605467074876812</v>
+      </c>
+      <c r="H83">
+        <v>-0.07051880721634486</v>
+      </c>
+      <c r="I83">
+        <v>0.01416271279023552</v>
+      </c>
+      <c r="J83">
+        <v>-0.07704620128160594</v>
+      </c>
+      <c r="K83">
+        <v>-0.02476299687659431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.008005655115327477</v>
+        <v>-0.002014325430226451</v>
       </c>
       <c r="C84">
-        <v>-0.07810820403231143</v>
+        <v>-0.0471361818650871</v>
       </c>
       <c r="D84">
-        <v>-0.03985141766221849</v>
+        <v>0.06337741736844947</v>
       </c>
       <c r="E84">
-        <v>-0.07883980124651253</v>
+        <v>-0.03025594711168881</v>
       </c>
       <c r="F84">
-        <v>-0.138767156978268</v>
+        <v>0.09467613708178702</v>
       </c>
       <c r="G84">
-        <v>-0.01722838991373485</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.03393001472667752</v>
+      </c>
+      <c r="H84">
+        <v>0.08488131903773932</v>
+      </c>
+      <c r="I84">
+        <v>-0.08729592662373008</v>
+      </c>
+      <c r="J84">
+        <v>-0.1199899259545381</v>
+      </c>
+      <c r="K84">
+        <v>0.06249192873907815</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.008217427960655463</v>
+        <v>0.02899611170249209</v>
       </c>
       <c r="C85">
-        <v>-0.1152957545714316</v>
+        <v>-0.1143915549204612</v>
       </c>
       <c r="D85">
-        <v>-0.09722026889542083</v>
+        <v>0.08350404006319997</v>
       </c>
       <c r="E85">
-        <v>0.1283842255519208</v>
+        <v>0.01922921045951012</v>
       </c>
       <c r="F85">
-        <v>0.08861769431476492</v>
+        <v>-0.1335317559761205</v>
       </c>
       <c r="G85">
-        <v>-0.1709906582204753</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.2214610190597762</v>
+      </c>
+      <c r="H85">
+        <v>-0.04155315937695279</v>
+      </c>
+      <c r="I85">
+        <v>-0.08056606427582366</v>
+      </c>
+      <c r="J85">
+        <v>0.08492732985319068</v>
+      </c>
+      <c r="K85">
+        <v>0.04721734202520295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01795777921106275</v>
+        <v>0.01637151073174121</v>
       </c>
       <c r="C86">
-        <v>-0.07373296140217975</v>
+        <v>-0.08109620467384614</v>
       </c>
       <c r="D86">
-        <v>0.01688521848877926</v>
+        <v>0.03328613997790621</v>
       </c>
       <c r="E86">
-        <v>-0.007590790514534669</v>
+        <v>-0.006511994254477245</v>
       </c>
       <c r="F86">
-        <v>-0.03881437265382705</v>
+        <v>0.07602615056833592</v>
       </c>
       <c r="G86">
-        <v>0.0808900189646206</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05971014103000688</v>
+      </c>
+      <c r="H86">
+        <v>0.01888667545898653</v>
+      </c>
+      <c r="I86">
+        <v>0.1386915754109993</v>
+      </c>
+      <c r="J86">
+        <v>0.113612194722297</v>
+      </c>
+      <c r="K86">
+        <v>-0.1687596669848164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.02065428149268821</v>
+        <v>0.02537220640441903</v>
       </c>
       <c r="C87">
-        <v>-0.1489534280417704</v>
+        <v>-0.1184142545718897</v>
       </c>
       <c r="D87">
-        <v>-0.04026635235985673</v>
+        <v>0.0252740084301065</v>
       </c>
       <c r="E87">
-        <v>-0.09651736818013562</v>
+        <v>-0.002643670360399272</v>
       </c>
       <c r="F87">
-        <v>-0.03872383622506004</v>
+        <v>0.05979813517945209</v>
       </c>
       <c r="G87">
-        <v>0.008759654619453116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.007980177750075819</v>
+      </c>
+      <c r="H87">
+        <v>0.02644488658975417</v>
+      </c>
+      <c r="I87">
+        <v>-0.09127131855307412</v>
+      </c>
+      <c r="J87">
+        <v>-0.07004394919124841</v>
+      </c>
+      <c r="K87">
+        <v>-0.04192475261562163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.008405848691422843</v>
+        <v>0.03911702375812456</v>
       </c>
       <c r="C88">
-        <v>-0.03469267621559693</v>
+        <v>-0.06058983334075318</v>
       </c>
       <c r="D88">
-        <v>-0.04706522224375761</v>
+        <v>0.0421820751490081</v>
       </c>
       <c r="E88">
-        <v>0.05156784839428308</v>
+        <v>-0.004869962281823795</v>
       </c>
       <c r="F88">
-        <v>0.00844459784298825</v>
+        <v>-0.02249068476175365</v>
       </c>
       <c r="G88">
-        <v>-0.001048697040717401</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.0202454344110048</v>
+      </c>
+      <c r="H88">
+        <v>-0.008451524289697036</v>
+      </c>
+      <c r="I88">
+        <v>0.003131712974740934</v>
+      </c>
+      <c r="J88">
+        <v>0.009911107370576686</v>
+      </c>
+      <c r="K88">
+        <v>0.07417473927913022</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4015464855157571</v>
+        <v>0.3920035830515184</v>
       </c>
       <c r="C89">
-        <v>0.06587024940026187</v>
+        <v>0.1130630263699008</v>
       </c>
       <c r="D89">
-        <v>-0.07217385383930162</v>
+        <v>-0.03628320594209313</v>
       </c>
       <c r="E89">
-        <v>-0.07971461400966678</v>
+        <v>-0.04341481921967139</v>
       </c>
       <c r="F89">
-        <v>-0.08967095658959444</v>
+        <v>0.05820953498984189</v>
       </c>
       <c r="G89">
-        <v>-0.04634608957980278</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03760655827965812</v>
+      </c>
+      <c r="H89">
+        <v>0.0209957998867286</v>
+      </c>
+      <c r="I89">
+        <v>-0.08303213316491886</v>
+      </c>
+      <c r="J89">
+        <v>-0.7266531662935852</v>
+      </c>
+      <c r="K89">
+        <v>0.02953668220040352</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3099362603917594</v>
+        <v>0.3164132400777336</v>
       </c>
       <c r="C90">
-        <v>0.02001830862099739</v>
+        <v>0.07352606542286</v>
       </c>
       <c r="D90">
-        <v>0.005686511238394636</v>
+        <v>-0.01913235583304166</v>
       </c>
       <c r="E90">
-        <v>-0.07319504478501652</v>
+        <v>0.00572494479648764</v>
       </c>
       <c r="F90">
-        <v>0.04500448418944349</v>
+        <v>0.03944672002889796</v>
       </c>
       <c r="G90">
-        <v>0.03075650203376551</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.004429696284177681</v>
+      </c>
+      <c r="H90">
+        <v>0.02172719682128641</v>
+      </c>
+      <c r="I90">
+        <v>0.0009707880337437827</v>
+      </c>
+      <c r="J90">
+        <v>0.0865575948125407</v>
+      </c>
+      <c r="K90">
+        <v>-0.007319511609268003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02285206309434856</v>
+        <v>0.05382623731072897</v>
       </c>
       <c r="C91">
-        <v>-0.0764191197241241</v>
+        <v>-0.08100103134380023</v>
       </c>
       <c r="D91">
-        <v>-0.07443869943043219</v>
+        <v>0.05517842116001551</v>
       </c>
       <c r="E91">
-        <v>0.06629805761033868</v>
+        <v>0.04456736829132426</v>
       </c>
       <c r="F91">
-        <v>0.06096952918622497</v>
+        <v>-0.05794724440147511</v>
       </c>
       <c r="G91">
-        <v>-0.07397843645687803</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.08489306757330889</v>
+      </c>
+      <c r="H91">
+        <v>-0.03491204011622435</v>
+      </c>
+      <c r="I91">
+        <v>-0.003049555767754394</v>
+      </c>
+      <c r="J91">
+        <v>0.002941737083351438</v>
+      </c>
+      <c r="K91">
+        <v>0.06567363029338802</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.380669328159951</v>
+        <v>0.3534908182045066</v>
       </c>
       <c r="C92">
-        <v>0.05539402276912102</v>
+        <v>0.1173764062593828</v>
       </c>
       <c r="D92">
-        <v>0.01286163540752905</v>
+        <v>-0.05530380789600842</v>
       </c>
       <c r="E92">
-        <v>0.01004756762752502</v>
+        <v>-0.04222049554396975</v>
       </c>
       <c r="F92">
-        <v>-0.1094635637465885</v>
+        <v>0.04844907917298924</v>
       </c>
       <c r="G92">
-        <v>-0.01676089774695567</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01499252065209408</v>
+      </c>
+      <c r="H92">
+        <v>0.06118923595720276</v>
+      </c>
+      <c r="I92">
+        <v>0.003296350465186578</v>
+      </c>
+      <c r="J92">
+        <v>0.1502354548901254</v>
+      </c>
+      <c r="K92">
+        <v>0.004406133480045081</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3074276241350604</v>
+        <v>0.311238252832083</v>
       </c>
       <c r="C93">
-        <v>0.06893210601757339</v>
+        <v>0.1113961398404955</v>
       </c>
       <c r="D93">
-        <v>-0.009593500645035734</v>
+        <v>-0.009678792292394897</v>
       </c>
       <c r="E93">
-        <v>-0.06840903020366587</v>
+        <v>-0.004908323425675491</v>
       </c>
       <c r="F93">
-        <v>-0.02846657671263161</v>
+        <v>0.03741847519191813</v>
       </c>
       <c r="G93">
-        <v>-0.0112507833557918</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03891336932733864</v>
+      </c>
+      <c r="H93">
+        <v>0.03275588479797654</v>
+      </c>
+      <c r="I93">
+        <v>0.02823219501582453</v>
+      </c>
+      <c r="J93">
+        <v>0.1002840829901992</v>
+      </c>
+      <c r="K93">
+        <v>-0.01791743100615718</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.03920123871812804</v>
+        <v>0.07819477398950404</v>
       </c>
       <c r="C94">
-        <v>-0.1933802305274353</v>
+        <v>-0.1598914902304365</v>
       </c>
       <c r="D94">
-        <v>-0.1584864317976539</v>
+        <v>0.1125905641452495</v>
       </c>
       <c r="E94">
-        <v>0.2158572654905122</v>
+        <v>0.03252989746925398</v>
       </c>
       <c r="F94">
-        <v>0.06455878505921314</v>
+        <v>-0.1547434281153754</v>
       </c>
       <c r="G94">
-        <v>-0.5845890962605148</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.5373737646153574</v>
+      </c>
+      <c r="H94">
+        <v>-0.2006734728628136</v>
+      </c>
+      <c r="I94">
+        <v>0.0370769343294558</v>
+      </c>
+      <c r="J94">
+        <v>-0.1040197184286601</v>
+      </c>
+      <c r="K94">
+        <v>0.2465170077405956</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.01960377277665211</v>
+        <v>0.03895090710638512</v>
       </c>
       <c r="C95">
-        <v>-0.09464120701926</v>
+        <v>-0.1262172824178905</v>
       </c>
       <c r="D95">
-        <v>-0.04346971741126728</v>
+        <v>0.06514757191231835</v>
       </c>
       <c r="E95">
-        <v>0.03875689150107638</v>
+        <v>-0.01915828667316117</v>
       </c>
       <c r="F95">
-        <v>0.07528865205596562</v>
+        <v>-0.07677407949537286</v>
       </c>
       <c r="G95">
-        <v>0.07893347058010278</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.0468725264780557</v>
+      </c>
+      <c r="H95">
+        <v>0.06304944048587992</v>
+      </c>
+      <c r="I95">
+        <v>-0.09111024352655246</v>
+      </c>
+      <c r="J95">
+        <v>-0.1620403927675823</v>
+      </c>
+      <c r="K95">
+        <v>0.2748887821915416</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>6.946307022710772e-05</v>
+        <v>0.0161296382105559</v>
       </c>
       <c r="C97">
-        <v>0.0009462982683367718</v>
+        <v>-0.01677186481895614</v>
       </c>
       <c r="D97">
-        <v>-0.0004855746307788999</v>
+        <v>-0.006080709146297593</v>
       </c>
       <c r="E97">
-        <v>0.002996803473796922</v>
+        <v>-0.02798748826092731</v>
       </c>
       <c r="F97">
-        <v>-0.003678625457082689</v>
+        <v>-0.005650378973671891</v>
       </c>
       <c r="G97">
-        <v>0.001538418251784643</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.01400900911532384</v>
+      </c>
+      <c r="H97">
+        <v>0.0557413799591328</v>
+      </c>
+      <c r="I97">
+        <v>0.1473192102906236</v>
+      </c>
+      <c r="J97">
+        <v>-0.05037250131012058</v>
+      </c>
+      <c r="K97">
+        <v>0.03332627389703939</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.07805494610228333</v>
+        <v>0.1309610435011689</v>
       </c>
       <c r="C98">
-        <v>-0.1379446007421955</v>
+        <v>-0.1590923100476442</v>
       </c>
       <c r="D98">
-        <v>-0.1367119349323016</v>
+        <v>0.09556314205665775</v>
       </c>
       <c r="E98">
-        <v>0.08908217608879329</v>
+        <v>0.03901601191203975</v>
       </c>
       <c r="F98">
-        <v>0.1038800144476563</v>
+        <v>-0.2172223982888827</v>
       </c>
       <c r="G98">
-        <v>0.2188786932755649</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3042068836210611</v>
+      </c>
+      <c r="H98">
+        <v>-0.3364227706876229</v>
+      </c>
+      <c r="I98">
+        <v>0.1320613689768446</v>
+      </c>
+      <c r="J98">
+        <v>0.08212309914528056</v>
+      </c>
+      <c r="K98">
+        <v>-0.08282161130955726</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01775782008023491</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.04357697338208349</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01668103787945024</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.03050441023477966</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.08234860217067395</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.09403547214269611</v>
+      </c>
+      <c r="H99">
+        <v>0.2125096552144975</v>
+      </c>
+      <c r="I99">
+        <v>0.8880063452399463</v>
+      </c>
+      <c r="J99">
+        <v>-0.1678116391557896</v>
+      </c>
+      <c r="K99">
+        <v>0.003835792386210259</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.005086208685405987</v>
+        <v>0.01515807783865762</v>
       </c>
       <c r="C101">
-        <v>-0.07352180324294812</v>
+        <v>-0.08205798565796636</v>
       </c>
       <c r="D101">
-        <v>-0.04602685211560326</v>
+        <v>0.05161642262525282</v>
       </c>
       <c r="E101">
-        <v>-0.02422328463554783</v>
+        <v>0.04742458265235103</v>
       </c>
       <c r="F101">
-        <v>0.02434576707670248</v>
+        <v>0.00602627812222258</v>
       </c>
       <c r="G101">
-        <v>0.1123167751687047</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1379984684825882</v>
+      </c>
+      <c r="H101">
+        <v>0.2796060534272012</v>
+      </c>
+      <c r="I101">
+        <v>-0.02483527112757392</v>
+      </c>
+      <c r="J101">
+        <v>0.003409509515664465</v>
+      </c>
+      <c r="K101">
+        <v>0.1721705055028215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.005004524854450422</v>
+        <v>0.002281121502429377</v>
       </c>
       <c r="C102">
-        <v>-0.02101331600046608</v>
+        <v>-0.008441483048617223</v>
       </c>
       <c r="D102">
-        <v>-0.0046654619662886</v>
+        <v>-0.0009105715106393907</v>
       </c>
       <c r="E102">
-        <v>0.02397666661354455</v>
+        <v>0.004397134671764296</v>
       </c>
       <c r="F102">
-        <v>0.0241807573913774</v>
+        <v>-0.00745858515703747</v>
       </c>
       <c r="G102">
-        <v>-0.002223495095765338</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.001510165683677549</v>
+      </c>
+      <c r="H102">
+        <v>0.0003345131183229899</v>
+      </c>
+      <c r="I102">
+        <v>-0.0006030797170381428</v>
+      </c>
+      <c r="J102">
+        <v>-0.01552329404189183</v>
+      </c>
+      <c r="K102">
+        <v>-0.006036458339657453</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
